--- a/tests/robot_framework/files/woodecision/productierapport - 10 openbaar waarvan 1 verwisseld.xlsx
+++ b/tests/robot_framework/files/woodecision/productierapport - 10 openbaar waarvan 1 verwisseld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/woodecision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73CE83-25E2-8D4B-9BC3-D8C4F822C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAAA5B-6205-C643-AE26-961AA6E579C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="10480" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
         <v>2001</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -647,7 +647,7 @@
         <v>1002</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1002</v>
@@ -679,7 +679,7 @@
         <v>1003</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1003</v>
@@ -711,7 +711,7 @@
         <v>1004</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1004</v>
@@ -740,7 +740,7 @@
         <v>1005</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1005</v>
@@ -766,7 +766,7 @@
         <v>1006</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1006</v>
@@ -792,7 +792,7 @@
         <v>1007</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1007</v>
@@ -821,7 +821,7 @@
         <v>1008</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1008</v>
@@ -847,7 +847,7 @@
         <v>1009</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1009</v>
@@ -876,7 +876,7 @@
         <v>1010</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1010</v>
